--- a/Output/Coronal Elevation.xlsx
+++ b/Output/Coronal Elevation.xlsx
@@ -9,16 +9,15 @@
   <sheets>
     <sheet name="Angle" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="2" r:id="rId2"/>
-    <sheet name="IR" sheetId="3" r:id="rId3"/>
-    <sheet name="Muscle.Fm" sheetId="4" r:id="rId4"/>
-    <sheet name="Muscle.MomentArm" sheetId="5" r:id="rId5"/>
+    <sheet name="Muscle.Fm" sheetId="3" r:id="rId3"/>
+    <sheet name="Muscle.MomentArm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="51">
   <si>
     <t>H0Lat G-10Lat G-6Sup</t>
   </si>
@@ -75,12 +74,6 @@
   </si>
   <si>
     <t>glenohumeral reaction force [N]</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>Instability ratio</t>
   </si>
   <si>
     <t>Deltoideus lateral</t>
@@ -8247,1653 +8240,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>-1.410863840078412</v>
-      </c>
-      <c r="D3">
-        <v>-1.470582315675499</v>
-      </c>
-      <c r="E3">
-        <v>-0.7733645258463815</v>
-      </c>
-      <c r="F3">
-        <v>-0.6496803139202336</v>
-      </c>
-      <c r="G3">
-        <v>-0.8297509660411667</v>
-      </c>
-      <c r="H3">
-        <v>-0.7518451832425782</v>
-      </c>
-      <c r="I3">
-        <v>-0.4358280900693042</v>
-      </c>
-      <c r="J3">
-        <v>-0.3366860953519146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4">
-        <v>-1.511004754947679</v>
-      </c>
-      <c r="D4">
-        <v>-1.558743518013384</v>
-      </c>
-      <c r="E4">
-        <v>-0.8159560700684437</v>
-      </c>
-      <c r="F4">
-        <v>-0.7045481595424228</v>
-      </c>
-      <c r="G4">
-        <v>-0.8624644452571573</v>
-      </c>
-      <c r="H4">
-        <v>-0.7827101100001748</v>
-      </c>
-      <c r="I4">
-        <v>-0.4600769767684464</v>
-      </c>
-      <c r="J4">
-        <v>-0.3581370694622458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5">
-        <v>-1.541541557054296</v>
-      </c>
-      <c r="D5">
-        <v>-1.579153892584161</v>
-      </c>
-      <c r="E5">
-        <v>-0.8509567607765535</v>
-      </c>
-      <c r="F5">
-        <v>-0.7408167881815301</v>
-      </c>
-      <c r="G5">
-        <v>-0.8781909500794943</v>
-      </c>
-      <c r="H5">
-        <v>-0.7939132209484209</v>
-      </c>
-      <c r="I5">
-        <v>-0.4814485962236558</v>
-      </c>
-      <c r="J5">
-        <v>-0.3711528483244767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6">
-        <v>-1.537354959919405</v>
-      </c>
-      <c r="D6">
-        <v>-1.561678696867601</v>
-      </c>
-      <c r="E6">
-        <v>-0.8704456341484185</v>
-      </c>
-      <c r="F6">
-        <v>-0.7629693815590893</v>
-      </c>
-      <c r="G6">
-        <v>-0.8832959948993657</v>
-      </c>
-      <c r="H6">
-        <v>-0.79422322019337</v>
-      </c>
-      <c r="I6">
-        <v>-0.4928466198962601</v>
-      </c>
-      <c r="J6">
-        <v>-0.3763641167840567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7">
-        <v>-1.507234311982409</v>
-      </c>
-      <c r="D7">
-        <v>-1.523178627805168</v>
-      </c>
-      <c r="E7">
-        <v>-0.88426277327132</v>
-      </c>
-      <c r="F7">
-        <v>-0.7758957671473524</v>
-      </c>
-      <c r="G7">
-        <v>-0.8810174615106036</v>
-      </c>
-      <c r="H7">
-        <v>-0.7872372670275032</v>
-      </c>
-      <c r="I7">
-        <v>-0.497941959972676</v>
-      </c>
-      <c r="J7">
-        <v>-0.3741796905433319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8">
-        <v>-1.458574531019933</v>
-      </c>
-      <c r="D8">
-        <v>-1.443944013174114</v>
-      </c>
-      <c r="E8">
-        <v>-0.8919189268118177</v>
-      </c>
-      <c r="F8">
-        <v>-0.7777010947458718</v>
-      </c>
-      <c r="G8">
-        <v>-0.8615067349046724</v>
-      </c>
-      <c r="H8">
-        <v>-0.7785405454501141</v>
-      </c>
-      <c r="I8">
-        <v>-0.4965295794820198</v>
-      </c>
-      <c r="J8">
-        <v>-0.3737065377076519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="C9">
-        <v>-1.396571473698645</v>
-      </c>
-      <c r="D9">
-        <v>-1.344217455263709</v>
-      </c>
-      <c r="E9">
-        <v>-0.8906931542557853</v>
-      </c>
-      <c r="F9">
-        <v>-0.7743349602217495</v>
-      </c>
-      <c r="G9">
-        <v>-0.8328956546745186</v>
-      </c>
-      <c r="H9">
-        <v>-0.7617930371085572</v>
-      </c>
-      <c r="I9">
-        <v>-0.4893256983609832</v>
-      </c>
-      <c r="J9">
-        <v>-0.3675744621797154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10">
-        <v>-1.331018536787264</v>
-      </c>
-      <c r="D10">
-        <v>-1.262823575341155</v>
-      </c>
-      <c r="E10">
-        <v>-0.8919111956457914</v>
-      </c>
-      <c r="F10">
-        <v>-0.771608711434399</v>
-      </c>
-      <c r="G10">
-        <v>-0.8058013936446441</v>
-      </c>
-      <c r="H10">
-        <v>-0.7268515482263218</v>
-      </c>
-      <c r="I10">
-        <v>-0.4724992403051825</v>
-      </c>
-      <c r="J10">
-        <v>-0.3585143611060196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11">
-        <v>-1.269312463205237</v>
-      </c>
-      <c r="D11">
-        <v>-1.18789280089088</v>
-      </c>
-      <c r="E11">
-        <v>-0.8853693475644916</v>
-      </c>
-      <c r="F11">
-        <v>-0.7630716493084939</v>
-      </c>
-      <c r="G11">
-        <v>-0.7787692369152068</v>
-      </c>
-      <c r="H11">
-        <v>-0.6935074272051289</v>
-      </c>
-      <c r="I11">
-        <v>-0.4574269403780976</v>
-      </c>
-      <c r="J11">
-        <v>-0.3474380133297542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12">
-        <v>-1.210821259165922</v>
-      </c>
-      <c r="D12">
-        <v>-1.119234071928544</v>
-      </c>
-      <c r="E12">
-        <v>-0.8731582166870704</v>
-      </c>
-      <c r="F12">
-        <v>-0.7514755614470916</v>
-      </c>
-      <c r="G12">
-        <v>-0.7514786777640362</v>
-      </c>
-      <c r="H12">
-        <v>-0.6605233508446033</v>
-      </c>
-      <c r="I12">
-        <v>-0.4421007850976268</v>
-      </c>
-      <c r="J12">
-        <v>-0.323927088314701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13">
-        <v>-1.155864087085896</v>
-      </c>
-      <c r="D13">
-        <v>-1.056673503667196</v>
-      </c>
-      <c r="E13">
-        <v>-0.8552528506201859</v>
-      </c>
-      <c r="F13">
-        <v>-0.7384957380550113</v>
-      </c>
-      <c r="G13">
-        <v>-0.7247689397665383</v>
-      </c>
-      <c r="H13">
-        <v>-0.6271587120697962</v>
-      </c>
-      <c r="I13">
-        <v>-0.4267861085085748</v>
-      </c>
-      <c r="J13">
-        <v>-0.3031098940595868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14">
-        <v>-1.101749180018371</v>
-      </c>
-      <c r="D14">
-        <v>-1.001681867943644</v>
-      </c>
-      <c r="E14">
-        <v>-0.8321646710206564</v>
-      </c>
-      <c r="F14">
-        <v>-0.725331978732509</v>
-      </c>
-      <c r="G14">
-        <v>-0.6952976461653536</v>
-      </c>
-      <c r="H14">
-        <v>-0.5939162235981698</v>
-      </c>
-      <c r="I14">
-        <v>-0.4109745637135319</v>
-      </c>
-      <c r="J14">
-        <v>-0.2822202041158465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15">
-        <v>-1.051307793658188</v>
-      </c>
-      <c r="D15">
-        <v>-0.9507781719357853</v>
-      </c>
-      <c r="E15">
-        <v>-0.804556365625958</v>
-      </c>
-      <c r="F15">
-        <v>-0.7089024554063065</v>
-      </c>
-      <c r="G15">
-        <v>-0.6614751113211512</v>
-      </c>
-      <c r="H15">
-        <v>-0.5599389814958998</v>
-      </c>
-      <c r="I15">
-        <v>-0.3930082870596206</v>
-      </c>
-      <c r="J15">
-        <v>-0.2643130124585985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16">
-        <v>-1.005581949900601</v>
-      </c>
-      <c r="D16">
-        <v>-0.9023277299348608</v>
-      </c>
-      <c r="E16">
-        <v>-0.7722805304789944</v>
-      </c>
-      <c r="F16">
-        <v>-0.6886998099439195</v>
-      </c>
-      <c r="G16">
-        <v>-0.6268332620041056</v>
-      </c>
-      <c r="H16">
-        <v>-0.5237710762186093</v>
-      </c>
-      <c r="I16">
-        <v>-0.3743967334481789</v>
-      </c>
-      <c r="J16">
-        <v>-0.2438257765413288</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17">
-        <v>-0.9567638246787095</v>
-      </c>
-      <c r="D17">
-        <v>-0.8556447367597586</v>
-      </c>
-      <c r="E17">
-        <v>-0.7397182882356629</v>
-      </c>
-      <c r="F17">
-        <v>-0.6675743241676682</v>
-      </c>
-      <c r="G17">
-        <v>-0.5889605184687587</v>
-      </c>
-      <c r="H17">
-        <v>-0.4901488519693592</v>
-      </c>
-      <c r="I17">
-        <v>-0.3559238817483755</v>
-      </c>
-      <c r="J17">
-        <v>-0.2165229545469205</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18">
-        <v>-0.9040516030978613</v>
-      </c>
-      <c r="D18">
-        <v>-0.8107707578867588</v>
-      </c>
-      <c r="E18">
-        <v>-0.708578130984855</v>
-      </c>
-      <c r="F18">
-        <v>-0.6425872782360194</v>
-      </c>
-      <c r="G18">
-        <v>-0.5518437046504486</v>
-      </c>
-      <c r="H18">
-        <v>-0.4634008070356654</v>
-      </c>
-      <c r="I18">
-        <v>-0.3374856699265139</v>
-      </c>
-      <c r="J18">
-        <v>-0.1888406618377741</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19">
-        <v>-0.8564526741535289</v>
-      </c>
-      <c r="D19">
-        <v>-0.7663475486903634</v>
-      </c>
-      <c r="E19">
-        <v>-0.6770432910174006</v>
-      </c>
-      <c r="F19">
-        <v>-0.6131872925922542</v>
-      </c>
-      <c r="G19">
-        <v>-0.5179102263617164</v>
-      </c>
-      <c r="H19">
-        <v>-0.4357886480580779</v>
-      </c>
-      <c r="I19">
-        <v>-0.3190885865324023</v>
-      </c>
-      <c r="J19">
-        <v>-0.1567729742483414</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20">
-        <v>-0.8085947848881072</v>
-      </c>
-      <c r="D20">
-        <v>-0.7280763213853838</v>
-      </c>
-      <c r="E20">
-        <v>-0.6447724633970368</v>
-      </c>
-      <c r="F20">
-        <v>-0.583607743978891</v>
-      </c>
-      <c r="G20">
-        <v>-0.4825204095118649</v>
-      </c>
-      <c r="H20">
-        <v>-0.405265951411091</v>
-      </c>
-      <c r="I20">
-        <v>-0.3010911851873617</v>
-      </c>
-      <c r="J20">
-        <v>-0.1162372320755212</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21">
-        <v>-0.7585922539150219</v>
-      </c>
-      <c r="D21">
-        <v>-0.6844706914314472</v>
-      </c>
-      <c r="E21">
-        <v>-0.6149551486355292</v>
-      </c>
-      <c r="F21">
-        <v>-0.5542714529169285</v>
-      </c>
-      <c r="G21">
-        <v>-0.4503425717189152</v>
-      </c>
-      <c r="H21">
-        <v>-0.3779627167262602</v>
-      </c>
-      <c r="I21">
-        <v>-0.2817883712926086</v>
-      </c>
-      <c r="J21">
-        <v>-0.07026178678587079</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
-      <c r="C22">
-        <v>-0.7111722384991442</v>
-      </c>
-      <c r="D22">
-        <v>-0.6440110938461526</v>
-      </c>
-      <c r="E22">
-        <v>-0.5820744864177184</v>
-      </c>
-      <c r="F22">
-        <v>-0.5241103923646491</v>
-      </c>
-      <c r="G22">
-        <v>-0.4196326786443824</v>
-      </c>
-      <c r="H22">
-        <v>-0.3506885638926023</v>
-      </c>
-      <c r="I22">
-        <v>-0.264457377668905</v>
-      </c>
-      <c r="J22">
-        <v>-0.01302334050706362</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23">
-        <v>-0.6659853102257645</v>
-      </c>
-      <c r="D23">
-        <v>-0.6042084484860397</v>
-      </c>
-      <c r="E23">
-        <v>-0.5468453428490547</v>
-      </c>
-      <c r="F23">
-        <v>-0.4940047954641034</v>
-      </c>
-      <c r="G23">
-        <v>-0.3898116158358019</v>
-      </c>
-      <c r="H23">
-        <v>-0.3212395468519016</v>
-      </c>
-      <c r="I23">
-        <v>-0.2492075872949377</v>
-      </c>
-      <c r="J23">
-        <v>0.04181954617778108</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24">
-        <v>-0.623003963462515</v>
-      </c>
-      <c r="D24">
-        <v>-0.5619764785672683</v>
-      </c>
-      <c r="E24">
-        <v>-0.5126012304707805</v>
-      </c>
-      <c r="F24">
-        <v>-0.464181430811983</v>
-      </c>
-      <c r="G24">
-        <v>-0.3573986915313527</v>
-      </c>
-      <c r="H24">
-        <v>-0.2933623302608532</v>
-      </c>
-      <c r="I24">
-        <v>-0.2324751789386464</v>
-      </c>
-      <c r="J24">
-        <v>0.09113583516827042</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="C25">
-        <v>-0.5820544648870354</v>
-      </c>
-      <c r="D25">
-        <v>-0.5214430786907511</v>
-      </c>
-      <c r="E25">
-        <v>-0.4793041755293887</v>
-      </c>
-      <c r="F25">
-        <v>-0.4333087192691726</v>
-      </c>
-      <c r="G25">
-        <v>-0.3264380719409448</v>
-      </c>
-      <c r="H25">
-        <v>-0.2683435788141271</v>
-      </c>
-      <c r="I25">
-        <v>-0.2120191058726381</v>
-      </c>
-      <c r="J25">
-        <v>0.1339435624361316</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26">
-        <v>-0.5428250816935052</v>
-      </c>
-      <c r="D26">
-        <v>-0.4827657394545771</v>
-      </c>
-      <c r="E26">
-        <v>-0.4475275645213338</v>
-      </c>
-      <c r="F26">
-        <v>-0.4028412733408934</v>
-      </c>
-      <c r="G26">
-        <v>-0.2966188074524498</v>
-      </c>
-      <c r="H26">
-        <v>-0.2387241686354653</v>
-      </c>
-      <c r="I26">
-        <v>-0.187473069728312</v>
-      </c>
-      <c r="J26">
-        <v>0.1714205075991487</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27">
-        <v>-0.5072601506282579</v>
-      </c>
-      <c r="D27">
-        <v>-0.4453301195217628</v>
-      </c>
-      <c r="E27">
-        <v>-0.4174975964926481</v>
-      </c>
-      <c r="F27">
-        <v>-0.3714831552212147</v>
-      </c>
-      <c r="G27">
-        <v>-0.2676939128582941</v>
-      </c>
-      <c r="H27">
-        <v>-0.2076571136541094</v>
-      </c>
-      <c r="I27">
-        <v>-0.156325688697777</v>
-      </c>
-      <c r="J27">
-        <v>0.2047238828930968</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
-      <c r="C28">
-        <v>-0.4679521499293071</v>
-      </c>
-      <c r="D28">
-        <v>-0.4080131450650324</v>
-      </c>
-      <c r="E28">
-        <v>-0.3876613277429009</v>
-      </c>
-      <c r="F28">
-        <v>-0.3406172865105747</v>
-      </c>
-      <c r="G28">
-        <v>-0.2414827929228352</v>
-      </c>
-      <c r="H28">
-        <v>-0.1784649618754713</v>
-      </c>
-      <c r="I28">
-        <v>-0.123034594391389</v>
-      </c>
-      <c r="J28">
-        <v>0.2341196770654244</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
-      <c r="C29">
-        <v>-0.4301739386892705</v>
-      </c>
-      <c r="D29">
-        <v>-0.372028113561351</v>
-      </c>
-      <c r="E29">
-        <v>-0.354689276666721</v>
-      </c>
-      <c r="F29">
-        <v>-0.3108437185166149</v>
-      </c>
-      <c r="G29">
-        <v>-0.2127351178948019</v>
-      </c>
-      <c r="H29">
-        <v>-0.1477647033194049</v>
-      </c>
-      <c r="I29">
-        <v>-0.08860439545860246</v>
-      </c>
-      <c r="J29">
-        <v>0.260822772449222</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30">
-        <v>-0.3877379360096573</v>
-      </c>
-      <c r="D30">
-        <v>-0.3374107030589714</v>
-      </c>
-      <c r="E30">
-        <v>-0.3243889349289228</v>
-      </c>
-      <c r="F30">
-        <v>-0.2810037416230348</v>
-      </c>
-      <c r="G30">
-        <v>-0.1837978005057637</v>
-      </c>
-      <c r="H30">
-        <v>-0.1190021023412872</v>
-      </c>
-      <c r="I30">
-        <v>-0.04763267202714927</v>
-      </c>
-      <c r="J30">
-        <v>0.2829269339870553</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
-      <c r="C31">
-        <v>-0.3450861875903107</v>
-      </c>
-      <c r="D31">
-        <v>-0.3053611690660364</v>
-      </c>
-      <c r="E31">
-        <v>-0.2893900644291676</v>
-      </c>
-      <c r="F31">
-        <v>-0.2527764493916874</v>
-      </c>
-      <c r="G31">
-        <v>-0.1549091969300675</v>
-      </c>
-      <c r="H31">
-        <v>-0.09207373959857744</v>
-      </c>
-      <c r="I31">
-        <v>-0.006061398888930487</v>
-      </c>
-      <c r="J31">
-        <v>0.3023330401233837</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32">
-        <v>-0.3037444816468859</v>
-      </c>
-      <c r="D32">
-        <v>-0.2703140966308278</v>
-      </c>
-      <c r="E32">
-        <v>-0.2540347302428212</v>
-      </c>
-      <c r="F32">
-        <v>-0.2237092095244487</v>
-      </c>
-      <c r="G32">
-        <v>-0.1206976426840612</v>
-      </c>
-      <c r="H32">
-        <v>-0.06627381057997361</v>
-      </c>
-      <c r="I32">
-        <v>0.0327595546499365</v>
-      </c>
-      <c r="J32">
-        <v>0.317936601639195</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33">
-        <v>-0.2631198834658156</v>
-      </c>
-      <c r="D33">
-        <v>-0.2339847618435419</v>
-      </c>
-      <c r="E33">
-        <v>-0.2193107680191726</v>
-      </c>
-      <c r="F33">
-        <v>-0.1947270089135456</v>
-      </c>
-      <c r="G33">
-        <v>-0.08710388596549629</v>
-      </c>
-      <c r="H33">
-        <v>-0.0382095367968923</v>
-      </c>
-      <c r="I33">
-        <v>0.06843859649211244</v>
-      </c>
-      <c r="J33">
-        <v>0.3325606288780347</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34">
-        <v>-0.2234209720812891</v>
-      </c>
-      <c r="D34">
-        <v>-0.1967328904978995</v>
-      </c>
-      <c r="E34">
-        <v>-0.1849553268183128</v>
-      </c>
-      <c r="F34">
-        <v>-0.1622667734409502</v>
-      </c>
-      <c r="G34">
-        <v>-0.05377544741597725</v>
-      </c>
-      <c r="H34">
-        <v>-0.009997495290648783</v>
-      </c>
-      <c r="I34">
-        <v>0.09973822409128393</v>
-      </c>
-      <c r="J34">
-        <v>0.3464227098504487</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35">
-        <v>-0.1852021557843097</v>
-      </c>
-      <c r="D35">
-        <v>-0.1588653559956449</v>
-      </c>
-      <c r="E35">
-        <v>-0.1515229538921066</v>
-      </c>
-      <c r="F35">
-        <v>-0.1286903122386881</v>
-      </c>
-      <c r="G35">
-        <v>-0.02085216364931788</v>
-      </c>
-      <c r="H35">
-        <v>0.01946331136686938</v>
-      </c>
-      <c r="I35">
-        <v>0.128232144543051</v>
-      </c>
-      <c r="J35">
-        <v>0.3597727958411716</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36">
-        <v>-0.1476863792682165</v>
-      </c>
-      <c r="D36">
-        <v>-0.1217251639112547</v>
-      </c>
-      <c r="E36">
-        <v>-0.1186438350189162</v>
-      </c>
-      <c r="F36">
-        <v>-0.09504238897854127</v>
-      </c>
-      <c r="G36">
-        <v>0.01173905095186042</v>
-      </c>
-      <c r="H36">
-        <v>0.04974964585278834</v>
-      </c>
-      <c r="I36">
-        <v>0.1553260317740303</v>
-      </c>
-      <c r="J36">
-        <v>0.3755310181536045</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="C37">
-        <v>-0.1109465174650982</v>
-      </c>
-      <c r="D37">
-        <v>-0.08484822946470312</v>
-      </c>
-      <c r="E37">
-        <v>-0.08632959787806262</v>
-      </c>
-      <c r="F37">
-        <v>-0.06304995664818414</v>
-      </c>
-      <c r="G37">
-        <v>0.0441481157050461</v>
-      </c>
-      <c r="H37">
-        <v>0.08203934967067904</v>
-      </c>
-      <c r="I37">
-        <v>0.1798890577622365</v>
-      </c>
-      <c r="J37">
-        <v>0.3923987451634707</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10">
-      <c r="C38">
-        <v>-0.07493640291965908</v>
-      </c>
-      <c r="D38">
-        <v>-0.0486000008265332</v>
-      </c>
-      <c r="E38">
-        <v>-0.05450821761347645</v>
-      </c>
-      <c r="F38">
-        <v>-0.03085997922027927</v>
-      </c>
-      <c r="G38">
-        <v>0.07655639233205357</v>
-      </c>
-      <c r="H38">
-        <v>0.1135110813327732</v>
-      </c>
-      <c r="I38">
-        <v>0.2023410204953511</v>
-      </c>
-      <c r="J38">
-        <v>0.4058858733487047</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
-      <c r="C39">
-        <v>-0.03949866564549871</v>
-      </c>
-      <c r="D39">
-        <v>-0.01281465839819252</v>
-      </c>
-      <c r="E39">
-        <v>-0.02312438619074537</v>
-      </c>
-      <c r="F39">
-        <v>0.001018615280150636</v>
-      </c>
-      <c r="G39">
-        <v>0.1087486667186915</v>
-      </c>
-      <c r="H39">
-        <v>0.1497952203883505</v>
-      </c>
-      <c r="I39">
-        <v>0.2231054460102946</v>
-      </c>
-      <c r="J39">
-        <v>0.421809801490264</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
-      <c r="C40">
-        <v>-0.004548069119038432</v>
-      </c>
-      <c r="D40">
-        <v>0.02261872855643734</v>
-      </c>
-      <c r="E40">
-        <v>0.007943674275307473</v>
-      </c>
-      <c r="F40">
-        <v>0.03250088812946492</v>
-      </c>
-      <c r="G40">
-        <v>0.1410864812407391</v>
-      </c>
-      <c r="H40">
-        <v>0.1865223503552705</v>
-      </c>
-      <c r="I40">
-        <v>0.2424656315049543</v>
-      </c>
-      <c r="J40">
-        <v>0.4348918721431974</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
-      <c r="C41">
-        <v>0.02999533996255273</v>
-      </c>
-      <c r="D41">
-        <v>0.0577021538300908</v>
-      </c>
-      <c r="E41">
-        <v>0.03885466281901923</v>
-      </c>
-      <c r="F41">
-        <v>0.06367707424196223</v>
-      </c>
-      <c r="G41">
-        <v>0.1735121565818258</v>
-      </c>
-      <c r="H41">
-        <v>0.2203967866022843</v>
-      </c>
-      <c r="I41">
-        <v>0.2604257235954964</v>
-      </c>
-      <c r="J41">
-        <v>0.4489067716960353</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
-      <c r="C42">
-        <v>0.06425058459052436</v>
-      </c>
-      <c r="D42">
-        <v>0.09260033261701543</v>
-      </c>
-      <c r="E42">
-        <v>0.07035747145017321</v>
-      </c>
-      <c r="F42">
-        <v>0.0945787744514977</v>
-      </c>
-      <c r="G42">
-        <v>0.206464582829941</v>
-      </c>
-      <c r="H42">
-        <v>0.252286777959885</v>
-      </c>
-      <c r="I42">
-        <v>0.279455951983508</v>
-      </c>
-      <c r="J42">
-        <v>0.4645195664959878</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
-      <c r="C43">
-        <v>0.09825563983108754</v>
-      </c>
-      <c r="D43">
-        <v>0.1273440775939436</v>
-      </c>
-      <c r="E43">
-        <v>0.1038332230478589</v>
-      </c>
-      <c r="F43">
-        <v>0.1253755765741893</v>
-      </c>
-      <c r="G43">
-        <v>0.2409622878490089</v>
-      </c>
-      <c r="H43">
-        <v>0.2825882021219011</v>
-      </c>
-      <c r="I43">
-        <v>0.3023943207428347</v>
-      </c>
-      <c r="J43">
-        <v>0.476704407156881</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10">
-      <c r="C44">
-        <v>0.1320812328754587</v>
-      </c>
-      <c r="D44">
-        <v>0.1643071029250982</v>
-      </c>
-      <c r="E44">
-        <v>0.134591617898281</v>
-      </c>
-      <c r="F44">
-        <v>0.1561751818600289</v>
-      </c>
-      <c r="G44">
-        <v>0.2757544963175328</v>
-      </c>
-      <c r="H44">
-        <v>0.3116055945047766</v>
-      </c>
-      <c r="I44">
-        <v>0.329541810527923</v>
-      </c>
-      <c r="J44">
-        <v>0.4860171045368902</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10">
-      <c r="C45">
-        <v>0.1658896638765187</v>
-      </c>
-      <c r="D45">
-        <v>0.1990017388846395</v>
-      </c>
-      <c r="E45">
-        <v>0.165113040554759</v>
-      </c>
-      <c r="F45">
-        <v>0.1868897770006702</v>
-      </c>
-      <c r="G45">
-        <v>0.3085741891041284</v>
-      </c>
-      <c r="H45">
-        <v>0.340861509832947</v>
-      </c>
-      <c r="I45">
-        <v>0.3601091809187561</v>
-      </c>
-      <c r="J45">
-        <v>0.4944458208205803</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="C46">
-        <v>0.2027996634617913</v>
-      </c>
-      <c r="D46">
-        <v>0.2324366473042538</v>
-      </c>
-      <c r="E46">
-        <v>0.195640870843198</v>
-      </c>
-      <c r="F46">
-        <v>0.2182051266156052</v>
-      </c>
-      <c r="G46">
-        <v>0.3551921850090636</v>
-      </c>
-      <c r="H46">
-        <v>0.3752101911665292</v>
-      </c>
-      <c r="I46">
-        <v>0.3913229112502385</v>
-      </c>
-      <c r="J46">
-        <v>0.5028539932769799</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10">
-      <c r="C47">
-        <v>0.2378914730229774</v>
-      </c>
-      <c r="D47">
-        <v>0.2645760254606451</v>
-      </c>
-      <c r="E47">
-        <v>0.2261311509182433</v>
-      </c>
-      <c r="F47">
-        <v>0.2504512360573667</v>
-      </c>
-      <c r="G47">
-        <v>0.3953200082853615</v>
-      </c>
-      <c r="H47">
-        <v>0.4121861961671384</v>
-      </c>
-      <c r="I47">
-        <v>0.422987709468551</v>
-      </c>
-      <c r="J47">
-        <v>0.5076269087159143</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10">
-      <c r="C48">
-        <v>0.2717138626994156</v>
-      </c>
-      <c r="D48">
-        <v>0.2962434429072364</v>
-      </c>
-      <c r="E48">
-        <v>0.2562701063563477</v>
-      </c>
-      <c r="F48">
-        <v>0.2817848067930234</v>
-      </c>
-      <c r="G48">
-        <v>0.4328880213888184</v>
-      </c>
-      <c r="H48">
-        <v>0.4530045819885202</v>
-      </c>
-      <c r="I48">
-        <v>0.4543324987596469</v>
-      </c>
-      <c r="J48">
-        <v>0.5111431220358742</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10">
-      <c r="C49">
-        <v>0.3043638648212768</v>
-      </c>
-      <c r="D49">
-        <v>0.3281596966911818</v>
-      </c>
-      <c r="E49">
-        <v>0.2874217852685547</v>
-      </c>
-      <c r="F49">
-        <v>0.313004589979117</v>
-      </c>
-      <c r="G49">
-        <v>0.4714109749441038</v>
-      </c>
-      <c r="H49">
-        <v>0.4916579533460554</v>
-      </c>
-      <c r="I49">
-        <v>0.4880960959327929</v>
-      </c>
-      <c r="J49">
-        <v>0.5285143502321786</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10">
-      <c r="C50">
-        <v>0.3346202684277619</v>
-      </c>
-      <c r="D50">
-        <v>0.3595029481651028</v>
-      </c>
-      <c r="E50">
-        <v>0.3248921456182995</v>
-      </c>
-      <c r="F50">
-        <v>0.3435023181824626</v>
-      </c>
-      <c r="G50">
-        <v>0.5174734061467986</v>
-      </c>
-      <c r="H50">
-        <v>0.5352751519863419</v>
-      </c>
-      <c r="I50">
-        <v>0.5294969245563222</v>
-      </c>
-      <c r="J50">
-        <v>0.5534610134252197</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10">
-      <c r="C51">
-        <v>0.3645292121385856</v>
-      </c>
-      <c r="D51">
-        <v>0.3918375002131372</v>
-      </c>
-      <c r="E51">
-        <v>0.3667059167327148</v>
-      </c>
-      <c r="F51">
-        <v>0.3738261473690072</v>
-      </c>
-      <c r="G51">
-        <v>0.5625236283131994</v>
-      </c>
-      <c r="H51">
-        <v>0.5817341496469718</v>
-      </c>
-      <c r="I51">
-        <v>0.5770204521287634</v>
-      </c>
-      <c r="J51">
-        <v>0.5805689157224968</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10">
-      <c r="C52">
-        <v>0.3940898046760211</v>
-      </c>
-      <c r="D52">
-        <v>0.425484443574073</v>
-      </c>
-      <c r="E52">
-        <v>0.4148160523884742</v>
-      </c>
-      <c r="F52">
-        <v>0.4070172715524789</v>
-      </c>
-      <c r="G52">
-        <v>0.6212816102428936</v>
-      </c>
-      <c r="H52">
-        <v>0.6317617548709317</v>
-      </c>
-      <c r="I52">
-        <v>0.6142560660698017</v>
-      </c>
-      <c r="J52">
-        <v>0.6112647036983391</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10">
-      <c r="C53">
-        <v>0.4220813106994817</v>
-      </c>
-      <c r="D53">
-        <v>0.4620435088885942</v>
-      </c>
-      <c r="E53">
-        <v>0.4730558755317069</v>
-      </c>
-      <c r="F53">
-        <v>0.4468743125830095</v>
-      </c>
-      <c r="G53">
-        <v>0.6782048158633303</v>
-      </c>
-      <c r="H53">
-        <v>0.6893857544386872</v>
-      </c>
-      <c r="I53">
-        <v>0.6519816933163048</v>
-      </c>
-      <c r="J53">
-        <v>0.6478028222728504</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10">
-      <c r="C54">
-        <v>0.451514832493247</v>
-      </c>
-      <c r="D54">
-        <v>0.4994473384786163</v>
-      </c>
-      <c r="E54">
-        <v>0.561315213668412</v>
-      </c>
-      <c r="F54">
-        <v>0.4896853421909297</v>
-      </c>
-      <c r="G54">
-        <v>0.7366220846276257</v>
-      </c>
-      <c r="H54">
-        <v>0.7526154919147936</v>
-      </c>
-      <c r="I54">
-        <v>0.7040141125538538</v>
-      </c>
-      <c r="J54">
-        <v>0.6886094084513774</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10">
-      <c r="C55">
-        <v>0.4843496327373594</v>
-      </c>
-      <c r="D55">
-        <v>0.5446906109809142</v>
-      </c>
-      <c r="E55">
-        <v>0.6236922983156691</v>
-      </c>
-      <c r="F55">
-        <v>0.5437921911475344</v>
-      </c>
-      <c r="G55">
-        <v>0.799442037082003</v>
-      </c>
-      <c r="H55">
-        <v>0.8204237730221399</v>
-      </c>
-      <c r="I55">
-        <v>0.7427069209493625</v>
-      </c>
-      <c r="J55">
-        <v>0.7395285063392013</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
-      <c r="C56">
-        <v>0.5212374542537094</v>
-      </c>
-      <c r="D56">
-        <v>0.6107321885957657</v>
-      </c>
-      <c r="E56">
-        <v>0.6596655822952111</v>
-      </c>
-      <c r="F56">
-        <v>0.6126463939440163</v>
-      </c>
-      <c r="G56">
-        <v>0.8777159032219853</v>
-      </c>
-      <c r="H56">
-        <v>0.8978297790908844</v>
-      </c>
-      <c r="I56">
-        <v>0.786528287747029</v>
-      </c>
-      <c r="J56">
-        <v>0.8046498629997405</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10">
-      <c r="C57">
-        <v>0.599440911684861</v>
-      </c>
-      <c r="D57">
-        <v>0.6983882743928933</v>
-      </c>
-      <c r="E57">
-        <v>0.697320407189964</v>
-      </c>
-      <c r="F57">
-        <v>0.6931232481972077</v>
-      </c>
-      <c r="G57">
-        <v>0.9447118143229702</v>
-      </c>
-      <c r="H57">
-        <v>0.9621748805609144</v>
-      </c>
-      <c r="I57">
-        <v>0.8301189804326287</v>
-      </c>
-      <c r="J57">
-        <v>0.8480491357771536</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10">
-      <c r="C58">
-        <v>0.7056973241283495</v>
-      </c>
-      <c r="D58">
-        <v>0.7853037924128452</v>
-      </c>
-      <c r="E58">
-        <v>0.7358096971676173</v>
-      </c>
-      <c r="F58">
-        <v>0.7345266898198046</v>
-      </c>
-      <c r="G58">
-        <v>1.00806042480483</v>
-      </c>
-      <c r="H58">
-        <v>1.043719832535513</v>
-      </c>
-      <c r="I58">
-        <v>0.8780039937870143</v>
-      </c>
-      <c r="J58">
-        <v>0.8917949992443852</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10">
-      <c r="C59">
-        <v>0.7682531345593099</v>
-      </c>
-      <c r="D59">
-        <v>0.862979064144423</v>
-      </c>
-      <c r="E59">
-        <v>0.7766784437777901</v>
-      </c>
-      <c r="F59">
-        <v>0.778026991021469</v>
-      </c>
-      <c r="G59">
-        <v>1.085938889853491</v>
-      </c>
-      <c r="H59">
-        <v>1.087207413589615</v>
-      </c>
-      <c r="I59">
-        <v>0.9283419006152362</v>
-      </c>
-      <c r="J59">
-        <v>0.9459857108124335</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10">
-      <c r="C60">
-        <v>0.8404249845808097</v>
-      </c>
-      <c r="D60">
-        <v>0.9191454663385262</v>
-      </c>
-      <c r="E60">
-        <v>0.8203792615692227</v>
-      </c>
-      <c r="F60">
-        <v>0.824756339363044</v>
-      </c>
-      <c r="G60">
-        <v>1.148970942113789</v>
-      </c>
-      <c r="H60">
-        <v>1.103743004985893</v>
-      </c>
-      <c r="I60">
-        <v>0.9805947234058429</v>
-      </c>
-      <c r="J60">
-        <v>1.003788198430078</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10">
-      <c r="C61">
-        <v>0.9195504449965263</v>
-      </c>
-      <c r="D61">
-        <v>0.9835672343251839</v>
-      </c>
-      <c r="E61">
-        <v>0.8673902950622324</v>
-      </c>
-      <c r="F61">
-        <v>0.8752143518454474</v>
-      </c>
-      <c r="G61">
-        <v>1.171979041332795</v>
-      </c>
-      <c r="H61">
-        <v>1.125803952530909</v>
-      </c>
-      <c r="I61">
-        <v>1.037883587709767</v>
-      </c>
-      <c r="J61">
-        <v>1.061050342511452</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10">
-      <c r="C62">
-        <v>0.9905771916541936</v>
-      </c>
-      <c r="D62">
-        <v>1.050511780366844</v>
-      </c>
-      <c r="E62">
-        <v>0.9185837945955679</v>
-      </c>
-      <c r="F62">
-        <v>0.9289520702246378</v>
-      </c>
-      <c r="G62">
-        <v>1.191881727124564</v>
-      </c>
-      <c r="H62">
-        <v>1.183220223426425</v>
-      </c>
-      <c r="I62">
-        <v>1.095307006000765</v>
-      </c>
-      <c r="J62">
-        <v>1.114129583025013</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HJ63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9986,85 +8332,85 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BG1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BW1" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CE1" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CM1" t="s">
         <v>30</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CU1" t="s">
         <v>31</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="DC1" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DK1" t="s">
         <v>33</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DS1" t="s">
         <v>34</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="EA1" t="s">
         <v>35</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EI1" t="s">
         <v>36</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EQ1" t="s">
         <v>37</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EY1" t="s">
         <v>38</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FG1" t="s">
         <v>39</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FO1" t="s">
         <v>40</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FW1" t="s">
         <v>41</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="GE1" t="s">
         <v>42</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GM1" t="s">
         <v>43</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GU1" t="s">
         <v>44</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HC1" t="s">
         <v>45</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:218">
@@ -10072,7 +8418,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -10728,7 +9074,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -50384,7 +48730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HJ63"/>
   <sheetViews>
@@ -50532,85 +48878,85 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AI1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AQ1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BG1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BW1" t="s">
         <v>28</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CE1" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CM1" t="s">
         <v>30</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CU1" t="s">
         <v>31</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="DC1" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DK1" t="s">
         <v>33</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DS1" t="s">
         <v>34</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="EA1" t="s">
         <v>35</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EI1" t="s">
         <v>36</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EQ1" t="s">
         <v>37</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EY1" t="s">
         <v>38</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FG1" t="s">
         <v>39</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FO1" t="s">
         <v>40</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FW1" t="s">
         <v>41</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="GE1" t="s">
         <v>42</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GM1" t="s">
         <v>43</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GU1" t="s">
         <v>44</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HC1" t="s">
         <v>45</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:218">
@@ -50618,7 +48964,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -51274,655 +49620,655 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="CZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="DZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ED3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ER3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ES3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="ET3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="FZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GK3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GL3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GM3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GN3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GO3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GP3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GQ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GR3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GS3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GT3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GU3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GV3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GW3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GX3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GY3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="GZ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HA3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HB3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HC3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HD3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HE3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HF3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HG3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HH3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HI3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HJ3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:218">
